--- a/data/Пыжик.xlsx
+++ b/data/Пыжик.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\оптовики на Херсон\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ Пыжик\pokom_pijik\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B033ED-0193-417A-A9E3-CB4C29C79AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED910A5-DAE5-4120-97EF-6843A367F885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4680115881136</v>
+        <v>4640242180595</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>

--- a/data/Пыжик.xlsx
+++ b/data/Пыжик.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ Пыжик\pokom_pijik\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED910A5-DAE5-4120-97EF-6843A367F885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D1364F-C11F-4520-9A06-0226A5C8A562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,21 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Сосиски Сливочные Вязанка Сливушки Весовые П/а мгс Вязанка</t>
+    <t xml:space="preserve"> 229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</t>
   </si>
   <si>
-    <t> 318  Сосиски Датские ТМ Зареченские, ВЕС  ПОКОМ</t>
+    <t xml:space="preserve"> 248  Сардельки Сочные ТМ Особый рецепт,   ПОКОМ</t>
   </si>
   <si>
-    <t> 217  Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</t>
-  </si>
-  <si>
-    <t>330  Колбаса вареная Филейская ТМ Вязанка. ВЕС  ПОКОМ</t>
-  </si>
-  <si>
-    <t>317 Колбаса Сервелат Рижский ТМ Зареченские, ВЕС  ПОКОМ</t>
+    <t xml:space="preserve"> 321  Колбаса Сервелат Пражский ТМ Зареченские, ВЕС ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -375,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +383,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>4607091385168</v>
+        <v>4607091389104</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -397,7 +391,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4680115880870</v>
+        <v>4607091384673</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -405,26 +399,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4607091383522</v>
+        <v>4640242180816</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>4680115881426</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4640242180595</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/Пыжик.xlsx
+++ b/data/Пыжик.xlsx
@@ -8,32 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ Пыжик\pokom_pijik\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D1364F-C11F-4520-9A06-0226A5C8A562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF342743-8DBA-4F5E-A27A-6ACCDBD69BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve"> 229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</t>
+    <t>217  Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</t>
   </si>
   <si>
-    <t xml:space="preserve"> 248  Сардельки Сочные ТМ Особый рецепт,   ПОКОМ</t>
+    <t>200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</t>
   </si>
   <si>
-    <t xml:space="preserve"> 321  Колбаса Сервелат Пражский ТМ Зареченские, ВЕС ПОКОМ</t>
+    <t>319  Колбаса вареная Филейская ТМ Вязанка ТС Классическая, 0,45 кг. ПОКОМ</t>
+  </si>
+  <si>
+    <t>255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -369,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +392,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>4607091389104</v>
+        <v>4607091383522</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -391,7 +400,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4607091384673</v>
+        <v>4607091388930</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -399,10 +408,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4640242180816</v>
+        <v>4680115881419</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4607091384246</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/Пыжик.xlsx
+++ b/data/Пыжик.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ Пыжик\pokom_pijik\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF342743-8DBA-4F5E-A27A-6ACCDBD69BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD251159-7CBD-4561-9968-1150E862D0AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,18 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>217  Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</t>
-  </si>
-  <si>
-    <t>200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</t>
-  </si>
-  <si>
-    <t>319  Колбаса вареная Филейская ТМ Вязанка ТС Классическая, 0,45 кг. ПОКОМ</t>
-  </si>
-  <si>
-    <t>255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve"> 242  Колбаса Сервелат ЗАПЕЧ.Дугушка ТМ Стародворье, вектор, в/к     ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 239  Колбаса Салями запеч Дугушка, оболочка вектор, ВЕС, ТМ Стародворье  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 318  Сосиски Датские ТМ Зареченские, ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250  Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 017  Сосиски Вязанка Сливочные, Вязанка амицел ВЕС.ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 316  Колбаса Нежная ТМ Зареченские ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 330  Колбаса вареная Филейская ТМ Вязанка. ВЕС  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -378,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +404,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>4607091383522</v>
+        <v>4680115883109</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -400,7 +412,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4607091388930</v>
+        <v>4680115883093</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -408,7 +420,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4680115881419</v>
+        <v>4680115880870</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -416,10 +428,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4607091384246</v>
+        <v>4607091384482</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4607091385168</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4640242180564</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4607091388930</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4680115881426</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
